--- a/Tag 02/PA-Arbeitszeiten_0.2_Cvetkovic_David.xlsx
+++ b/Tag 02/PA-Arbeitszeiten_0.2_Cvetkovic_David.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Fussball-Webapplikation\Tag 02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BD07C8B-49AE-40D0-AE4C-D0D54E41C413}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF0D1FB9-2301-4AA1-B344-5BC21CC49467}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{60C6E820-592A-40C4-8B41-F60F494C4260}"/>
   </bookViews>
@@ -464,7 +464,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -528,9 +528,15 @@
       <c r="D6" s="6">
         <v>0.49791666666666662</v>
       </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
+      <c r="E6" s="6">
+        <v>0.51388888888888895</v>
+      </c>
+      <c r="F6" s="6">
+        <v>0.68125000000000002</v>
+      </c>
+      <c r="G6" s="6">
+        <v>0.3298611111111111</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B7" s="3">
